--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/37/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/37/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>2.75418</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>2754.18</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.12397</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>2.88127</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>2881.27</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.154946</v>
+        <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>2.90312</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>2903.12</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.185922</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>2.9178</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>2917.8</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216899</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>2.92812</v>
+        <v>7.86267</v>
       </c>
       <c r="C9" t="n">
-        <v>2928.12</v>
+        <v>7862.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247875</v>
+        <v>0.247923</v>
       </c>
       <c r="B10" t="n">
-        <v>2.93694</v>
+        <v>8.920579999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>2936.94</v>
+        <v>8920.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278804</v>
+        <v>0.278848</v>
       </c>
       <c r="B11" t="n">
-        <v>2.94439</v>
+        <v>10.0216</v>
       </c>
       <c r="C11" t="n">
-        <v>2944.39</v>
+        <v>10021.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309729</v>
+        <v>0.309783</v>
       </c>
       <c r="B12" t="n">
-        <v>2.95099</v>
+        <v>11.1847</v>
       </c>
       <c r="C12" t="n">
-        <v>2950.99</v>
+        <v>11184.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340654</v>
+        <v>0.340708</v>
       </c>
       <c r="B13" t="n">
-        <v>2.95706</v>
+        <v>12.1459</v>
       </c>
       <c r="C13" t="n">
-        <v>2957.06</v>
+        <v>12145.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371579</v>
+        <v>0.371633</v>
       </c>
       <c r="B14" t="n">
-        <v>2.9625</v>
+        <v>12.3687</v>
       </c>
       <c r="C14" t="n">
-        <v>2962.5</v>
+        <v>12368.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402504</v>
+        <v>0.402558</v>
       </c>
       <c r="B15" t="n">
-        <v>2.96749</v>
+        <v>12.3932</v>
       </c>
       <c r="C15" t="n">
-        <v>2967.49</v>
+        <v>12393.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433429</v>
+        <v>0.433483</v>
       </c>
       <c r="B16" t="n">
-        <v>2.97206</v>
+        <v>12.3943</v>
       </c>
       <c r="C16" t="n">
-        <v>2972.06</v>
+        <v>12394.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464349</v>
+        <v>0.464403</v>
       </c>
       <c r="B17" t="n">
-        <v>2.97636</v>
+        <v>12.3745</v>
       </c>
       <c r="C17" t="n">
-        <v>2976.36</v>
+        <v>12374.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495274</v>
+        <v>0.495328</v>
       </c>
       <c r="B18" t="n">
-        <v>2.98028</v>
+        <v>12.3583</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.28</v>
+        <v>12358.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526199</v>
+        <v>0.526253</v>
       </c>
       <c r="B19" t="n">
-        <v>2.98383</v>
+        <v>12.3376</v>
       </c>
       <c r="C19" t="n">
-        <v>2983.83</v>
+        <v>12337.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557124</v>
+        <v>0.557178</v>
       </c>
       <c r="B20" t="n">
-        <v>2.98719</v>
+        <v>12.3154</v>
       </c>
       <c r="C20" t="n">
-        <v>2987.19</v>
+        <v>12315.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588049</v>
+        <v>0.588103</v>
       </c>
       <c r="B21" t="n">
-        <v>2.99017</v>
+        <v>12.2876</v>
       </c>
       <c r="C21" t="n">
-        <v>2990.17</v>
+        <v>12287.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6190909999999999</v>
+        <v>0.6191449999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>2.99285</v>
+        <v>12.2577</v>
       </c>
       <c r="C22" t="n">
-        <v>2992.85</v>
+        <v>12257.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650269</v>
+        <v>0.650322</v>
       </c>
       <c r="B23" t="n">
-        <v>2.99537</v>
+        <v>12.2215</v>
       </c>
       <c r="C23" t="n">
-        <v>2995.37</v>
+        <v>12221.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681441</v>
+        <v>0.681495</v>
       </c>
       <c r="B24" t="n">
-        <v>2.99768</v>
+        <v>12.1813</v>
       </c>
       <c r="C24" t="n">
-        <v>2997.68</v>
+        <v>12181.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712614</v>
+        <v>0.7126670000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>2.99975</v>
+        <v>12.14</v>
       </c>
       <c r="C25" t="n">
-        <v>2999.75</v>
+        <v>12140</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743791</v>
+        <v>0.7438439999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>3.00161</v>
+        <v>12.0983</v>
       </c>
       <c r="C26" t="n">
-        <v>3001.61</v>
+        <v>12098.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.774963</v>
+        <v>0.775017</v>
       </c>
       <c r="B27" t="n">
-        <v>3.00325</v>
+        <v>12.0549</v>
       </c>
       <c r="C27" t="n">
-        <v>3003.25</v>
+        <v>12054.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806136</v>
+        <v>0.80619</v>
       </c>
       <c r="B28" t="n">
-        <v>3.00469</v>
+        <v>12.0095</v>
       </c>
       <c r="C28" t="n">
-        <v>3004.69</v>
+        <v>12009.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837313</v>
+        <v>0.837367</v>
       </c>
       <c r="B29" t="n">
-        <v>3.00594</v>
+        <v>11.9628</v>
       </c>
       <c r="C29" t="n">
-        <v>3005.94</v>
+        <v>11962.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868485</v>
+        <v>0.8685389999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>3.00701</v>
+        <v>11.9134</v>
       </c>
       <c r="C30" t="n">
-        <v>3007.01</v>
+        <v>11913.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899658</v>
+        <v>0.899712</v>
       </c>
       <c r="B31" t="n">
-        <v>3.0079</v>
+        <v>11.8615</v>
       </c>
       <c r="C31" t="n">
-        <v>3007.9</v>
+        <v>11861.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930835</v>
+        <v>0.930889</v>
       </c>
       <c r="B32" t="n">
-        <v>3.0086</v>
+        <v>11.806</v>
       </c>
       <c r="C32" t="n">
-        <v>3008.6</v>
+        <v>11806</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620069999999999</v>
+        <v>0.9620610000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>3.00914</v>
+        <v>11.7476</v>
       </c>
       <c r="C33" t="n">
-        <v>3009.14</v>
+        <v>11747.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993185</v>
+        <v>0.993238</v>
       </c>
       <c r="B34" t="n">
-        <v>3.0095</v>
+        <v>11.6861</v>
       </c>
       <c r="C34" t="n">
-        <v>3009.5</v>
+        <v>11686.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02448</v>
+        <v>1.02455</v>
       </c>
       <c r="B35" t="n">
-        <v>3.00969</v>
+        <v>11.622</v>
       </c>
       <c r="C35" t="n">
-        <v>3009.69</v>
+        <v>11622</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05586</v>
+        <v>1.05593</v>
       </c>
       <c r="B36" t="n">
-        <v>3.00972</v>
+        <v>11.5555</v>
       </c>
       <c r="C36" t="n">
-        <v>3009.72</v>
+        <v>11555.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08724</v>
+        <v>1.08732</v>
       </c>
       <c r="B37" t="n">
-        <v>3.00959</v>
+        <v>11.4862</v>
       </c>
       <c r="C37" t="n">
-        <v>3009.59</v>
+        <v>11486.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11862</v>
+        <v>1.11869</v>
       </c>
       <c r="B38" t="n">
-        <v>3.00927</v>
+        <v>11.4139</v>
       </c>
       <c r="C38" t="n">
-        <v>3009.27</v>
+        <v>11413.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.15</v>
+        <v>1.15007</v>
       </c>
       <c r="B39" t="n">
-        <v>3.00876</v>
+        <v>11.3389</v>
       </c>
       <c r="C39" t="n">
-        <v>3008.76</v>
+        <v>11338.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18138</v>
+        <v>1.18118</v>
       </c>
       <c r="B40" t="n">
-        <v>3.00808</v>
+        <v>11.2605</v>
       </c>
       <c r="C40" t="n">
-        <v>3008.08</v>
+        <v>11260.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21276</v>
+        <v>1.21221</v>
       </c>
       <c r="B41" t="n">
-        <v>3.00722</v>
+        <v>11.1787</v>
       </c>
       <c r="C41" t="n">
-        <v>3007.22</v>
+        <v>11178.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24414</v>
+        <v>1.24307</v>
       </c>
       <c r="B42" t="n">
-        <v>3.00618</v>
+        <v>11.0925</v>
       </c>
       <c r="C42" t="n">
-        <v>3006.18</v>
+        <v>11092.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27552</v>
+        <v>1.27416</v>
       </c>
       <c r="B43" t="n">
-        <v>3.00497</v>
+        <v>11.0006</v>
       </c>
       <c r="C43" t="n">
-        <v>3004.97</v>
+        <v>11000.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.3069</v>
+        <v>1.30517</v>
       </c>
       <c r="B44" t="n">
-        <v>3.00359</v>
+        <v>10.9024</v>
       </c>
       <c r="C44" t="n">
-        <v>3003.59</v>
+        <v>10902.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33828</v>
+        <v>1.33605</v>
       </c>
       <c r="B45" t="n">
-        <v>3.00204</v>
+        <v>10.7989</v>
       </c>
       <c r="C45" t="n">
-        <v>3002.04</v>
+        <v>10798.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36966</v>
+        <v>1.36722</v>
       </c>
       <c r="B46" t="n">
-        <v>3.00033</v>
+        <v>10.687</v>
       </c>
       <c r="C46" t="n">
-        <v>3000.33</v>
+        <v>10687</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.40076</v>
+        <v>1.39802</v>
       </c>
       <c r="B47" t="n">
-        <v>2.99843</v>
+        <v>10.5701</v>
       </c>
       <c r="C47" t="n">
-        <v>2998.43</v>
+        <v>10570.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43173</v>
+        <v>1.4292</v>
       </c>
       <c r="B48" t="n">
-        <v>2.99636</v>
+        <v>10.4444</v>
       </c>
       <c r="C48" t="n">
-        <v>2996.36</v>
+        <v>10444.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.4627</v>
+        <v>1.46014</v>
       </c>
       <c r="B49" t="n">
-        <v>2.99414</v>
+        <v>10.3133</v>
       </c>
       <c r="C49" t="n">
-        <v>2994.14</v>
+        <v>10313.3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49367</v>
+        <v>1.4911</v>
       </c>
       <c r="B50" t="n">
-        <v>2.99172</v>
+        <v>10.1741</v>
       </c>
       <c r="C50" t="n">
-        <v>2991.72</v>
+        <v>10174.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52464</v>
+        <v>1.52223</v>
       </c>
       <c r="B51" t="n">
-        <v>2.98916</v>
+        <v>10.0284</v>
       </c>
       <c r="C51" t="n">
-        <v>2989.16</v>
+        <v>10028.4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.5556</v>
+        <v>1.55301</v>
       </c>
       <c r="B52" t="n">
-        <v>2.98639</v>
+        <v>9.8766</v>
       </c>
       <c r="C52" t="n">
-        <v>2986.39</v>
+        <v>9876.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58657</v>
+        <v>1.58422</v>
       </c>
       <c r="B53" t="n">
-        <v>2.98343</v>
+        <v>9.71866</v>
       </c>
       <c r="C53" t="n">
-        <v>2983.43</v>
+        <v>9718.66</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61747</v>
+        <v>1.61498</v>
       </c>
       <c r="B54" t="n">
-        <v>2.98032</v>
+        <v>9.55767</v>
       </c>
       <c r="C54" t="n">
-        <v>2980.32</v>
+        <v>9557.67</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64802</v>
+        <v>1.64625</v>
       </c>
       <c r="B55" t="n">
-        <v>2.97703</v>
+        <v>9.389149999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>2977.03</v>
+        <v>9389.15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67858</v>
+        <v>1.67689</v>
       </c>
       <c r="B56" t="n">
-        <v>2.9735</v>
+        <v>9.220219999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>2973.5</v>
+        <v>9220.219999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70913</v>
+        <v>1.70824</v>
       </c>
       <c r="B57" t="n">
-        <v>2.96979</v>
+        <v>9.044030000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>2969.79</v>
+        <v>9044.030000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73968</v>
+        <v>1.73895</v>
       </c>
       <c r="B58" t="n">
-        <v>2.96585</v>
+        <v>8.870180000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>2965.85</v>
+        <v>8870.18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77029</v>
+        <v>1.77026</v>
       </c>
       <c r="B59" t="n">
-        <v>2.96163</v>
+        <v>8.69065</v>
       </c>
       <c r="C59" t="n">
-        <v>2961.63</v>
+        <v>8690.65</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80186</v>
+        <v>1.8011</v>
       </c>
       <c r="B60" t="n">
-        <v>2.95686</v>
+        <v>8.513479999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>2956.86</v>
+        <v>8513.48</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83343</v>
+        <v>1.8322</v>
       </c>
       <c r="B61" t="n">
-        <v>2.9518</v>
+        <v>8.333740000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>2951.8</v>
+        <v>8333.74</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86496</v>
+        <v>1.86327</v>
       </c>
       <c r="B62" t="n">
-        <v>2.94647</v>
+        <v>8.15465</v>
       </c>
       <c r="C62" t="n">
-        <v>2946.47</v>
+        <v>8154.65</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89611</v>
+        <v>1.89393</v>
       </c>
       <c r="B63" t="n">
-        <v>2.94092</v>
+        <v>7.97853</v>
       </c>
       <c r="C63" t="n">
-        <v>2940.92</v>
+        <v>7978.53</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92725</v>
+        <v>1.92533</v>
       </c>
       <c r="B64" t="n">
-        <v>2.93515</v>
+        <v>7.80158</v>
       </c>
       <c r="C64" t="n">
-        <v>2935.15</v>
+        <v>7801.58</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.9584</v>
+        <v>1.95605</v>
       </c>
       <c r="B65" t="n">
-        <v>2.92907</v>
+        <v>7.63203</v>
       </c>
       <c r="C65" t="n">
-        <v>2929.07</v>
+        <v>7632.03</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98954</v>
+        <v>1.98714</v>
       </c>
       <c r="B66" t="n">
-        <v>2.92269</v>
+        <v>7.46579</v>
       </c>
       <c r="C66" t="n">
-        <v>2922.69</v>
+        <v>7465.79</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02081</v>
+        <v>2.01854</v>
       </c>
       <c r="B67" t="n">
-        <v>2.916</v>
+        <v>7.30337</v>
       </c>
       <c r="C67" t="n">
-        <v>2916</v>
+        <v>7303.37</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05176</v>
+        <v>2.04869</v>
       </c>
       <c r="B68" t="n">
-        <v>2.909</v>
+        <v>7.149970000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>2909</v>
+        <v>7149.97</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08247</v>
+        <v>2.08021</v>
       </c>
       <c r="B69" t="n">
-        <v>2.90165</v>
+        <v>6.99773</v>
       </c>
       <c r="C69" t="n">
-        <v>2901.65</v>
+        <v>6997.73</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11319</v>
+        <v>2.11133</v>
       </c>
       <c r="B70" t="n">
-        <v>2.89388</v>
+        <v>6.85246</v>
       </c>
       <c r="C70" t="n">
-        <v>2893.88</v>
+        <v>6852.46</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14392</v>
+        <v>2.14173</v>
       </c>
       <c r="B71" t="n">
-        <v>2.88566</v>
+        <v>6.71551</v>
       </c>
       <c r="C71" t="n">
-        <v>2885.66</v>
+        <v>6715.51</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17464</v>
+        <v>2.17333</v>
       </c>
       <c r="B72" t="n">
-        <v>2.87696</v>
+        <v>6.58121</v>
       </c>
       <c r="C72" t="n">
-        <v>2876.96</v>
+        <v>6581.21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20535</v>
+        <v>2.20427</v>
       </c>
       <c r="B73" t="n">
-        <v>2.86781</v>
+        <v>6.45275</v>
       </c>
       <c r="C73" t="n">
-        <v>2867.81</v>
+        <v>6452.75</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23608</v>
+        <v>2.23499</v>
       </c>
       <c r="B74" t="n">
-        <v>2.85819</v>
+        <v>6.331939999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>2858.19</v>
+        <v>6331.94</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.2668</v>
+        <v>2.266</v>
       </c>
       <c r="B75" t="n">
-        <v>2.84809</v>
+        <v>6.21719</v>
       </c>
       <c r="C75" t="n">
-        <v>2848.09</v>
+        <v>6217.19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29805</v>
+        <v>2.29715</v>
       </c>
       <c r="B76" t="n">
-        <v>2.83732</v>
+        <v>6.103520000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>2837.32</v>
+        <v>6103.52</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32895</v>
+        <v>2.32904</v>
       </c>
       <c r="B77" t="n">
-        <v>2.82592</v>
+        <v>6.00137</v>
       </c>
       <c r="C77" t="n">
-        <v>2825.92</v>
+        <v>6001.37</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35985</v>
+        <v>2.36104</v>
       </c>
       <c r="B78" t="n">
-        <v>2.8141</v>
+        <v>5.90207</v>
       </c>
       <c r="C78" t="n">
-        <v>2814.1</v>
+        <v>5902.07</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39096</v>
+        <v>2.39304</v>
       </c>
       <c r="B79" t="n">
-        <v>2.80141</v>
+        <v>5.808689999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>2801.41</v>
+        <v>5808.69</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42204</v>
+        <v>2.42504</v>
       </c>
       <c r="B80" t="n">
-        <v>2.78825</v>
+        <v>5.71794</v>
       </c>
       <c r="C80" t="n">
-        <v>2788.25</v>
+        <v>5717.94</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45221</v>
+        <v>2.45682</v>
       </c>
       <c r="B81" t="n">
-        <v>2.77463</v>
+        <v>5.65474</v>
       </c>
       <c r="C81" t="n">
-        <v>2774.63</v>
+        <v>5654.74</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48334</v>
+        <v>2.4901</v>
       </c>
       <c r="B82" t="n">
-        <v>2.76004</v>
+        <v>5.62824</v>
       </c>
       <c r="C82" t="n">
-        <v>2760.04</v>
+        <v>5628.24</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51484</v>
+        <v>2.52163</v>
       </c>
       <c r="B83" t="n">
-        <v>2.74431</v>
+        <v>5.60864</v>
       </c>
       <c r="C83" t="n">
-        <v>2744.31</v>
+        <v>5608.64</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54594</v>
+        <v>2.55235</v>
       </c>
       <c r="B84" t="n">
-        <v>2.72807</v>
+        <v>5.59012</v>
       </c>
       <c r="C84" t="n">
-        <v>2728.07</v>
+        <v>5590.12</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57646</v>
+        <v>2.58307</v>
       </c>
       <c r="B85" t="n">
-        <v>2.7112</v>
+        <v>5.56811</v>
       </c>
       <c r="C85" t="n">
-        <v>2711.2</v>
+        <v>5568.11</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60701</v>
+        <v>2.61379</v>
       </c>
       <c r="B86" t="n">
-        <v>2.69344</v>
+        <v>5.54054</v>
       </c>
       <c r="C86" t="n">
-        <v>2693.44</v>
+        <v>5540.54</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63894</v>
+        <v>2.64451</v>
       </c>
       <c r="B87" t="n">
-        <v>2.67408</v>
+        <v>5.51691</v>
       </c>
       <c r="C87" t="n">
-        <v>2674.08</v>
+        <v>5516.91</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66987</v>
+        <v>2.67472</v>
       </c>
       <c r="B88" t="n">
-        <v>2.65427</v>
+        <v>5.48861</v>
       </c>
       <c r="C88" t="n">
-        <v>2654.27</v>
+        <v>5488.61</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70027</v>
+        <v>2.70288</v>
       </c>
       <c r="B89" t="n">
-        <v>2.63397</v>
+        <v>5.46213</v>
       </c>
       <c r="C89" t="n">
-        <v>2633.97</v>
+        <v>5462.13</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.7313</v>
+        <v>2.73104</v>
       </c>
       <c r="B90" t="n">
-        <v>2.61238</v>
+        <v>5.42948</v>
       </c>
       <c r="C90" t="n">
-        <v>2612.38</v>
+        <v>5429.48</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76289</v>
+        <v>2.7592</v>
       </c>
       <c r="B91" t="n">
-        <v>2.58922</v>
+        <v>5.40224</v>
       </c>
       <c r="C91" t="n">
-        <v>2589.22</v>
+        <v>5402.24</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79411</v>
+        <v>2.78736</v>
       </c>
       <c r="B92" t="n">
-        <v>2.56568</v>
+        <v>5.37784</v>
       </c>
       <c r="C92" t="n">
-        <v>2565.68</v>
+        <v>5377.84</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82437</v>
+        <v>2.82</v>
       </c>
       <c r="B93" t="n">
-        <v>2.54182</v>
+        <v>5.33368</v>
       </c>
       <c r="C93" t="n">
-        <v>2541.82</v>
+        <v>5333.68</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85489</v>
+        <v>2.8552</v>
       </c>
       <c r="B94" t="n">
-        <v>2.51705</v>
+        <v>5.29633</v>
       </c>
       <c r="C94" t="n">
-        <v>2517.05</v>
+        <v>5296.33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88689</v>
+        <v>2.88994</v>
       </c>
       <c r="B95" t="n">
-        <v>2.49029</v>
+        <v>5.25859</v>
       </c>
       <c r="C95" t="n">
-        <v>2490.29</v>
+        <v>5258.59</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.9181</v>
+        <v>2.92194</v>
       </c>
       <c r="B96" t="n">
-        <v>2.46343</v>
+        <v>5.22244</v>
       </c>
       <c r="C96" t="n">
-        <v>2463.43</v>
+        <v>5222.44</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94882</v>
+        <v>2.95394</v>
       </c>
       <c r="B97" t="n">
-        <v>2.43661</v>
+        <v>5.176010000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>2436.61</v>
+        <v>5176.01</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97859</v>
+        <v>2.98594</v>
       </c>
       <c r="B98" t="n">
-        <v>2.40986</v>
+        <v>5.15005</v>
       </c>
       <c r="C98" t="n">
-        <v>2409.86</v>
+        <v>5150.05</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01051</v>
+        <v>3.01794</v>
       </c>
       <c r="B99" t="n">
-        <v>2.38081</v>
+        <v>5.10386</v>
       </c>
       <c r="C99" t="n">
-        <v>2380.81</v>
+        <v>5103.86</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04208</v>
+        <v>3.04994</v>
       </c>
       <c r="B100" t="n">
-        <v>2.35129</v>
+        <v>5.07104</v>
       </c>
       <c r="C100" t="n">
-        <v>2351.29</v>
+        <v>5071.04</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07321</v>
+        <v>3.08194</v>
       </c>
       <c r="B101" t="n">
-        <v>2.32205</v>
+        <v>4.89245</v>
       </c>
       <c r="C101" t="n">
-        <v>2322.05</v>
+        <v>4892.45</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10307</v>
+        <v>3.11394</v>
       </c>
       <c r="B102" t="n">
-        <v>2.29327</v>
+        <v>4.875310000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>2293.27</v>
+        <v>4875.31</v>
       </c>
     </row>
   </sheetData>
